--- a/insert/dataToInsert/colliers2023.xlsx
+++ b/insert/dataToInsert/colliers2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Travail\Peip\S4\Projet Parcours Numérique\jewelryshop\insert\dataToInsert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8E36D-3C2F-4B18-AB6D-30C90EC060AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF72B018-CB46-46D8-8B26-9905EA8CC16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>typeProduit</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>G00000000000000000005</t>
-  </si>
-  <si>
-    <t>Regenerate response</t>
   </si>
   <si>
     <t>idChaine</t>
@@ -134,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,12 +265,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -617,11 +608,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -977,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,54 +982,54 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1755</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>2023</v>
@@ -1049,25 +1037,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
       </c>
       <c r="G3">
         <v>2808</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>2023</v>
@@ -1075,25 +1063,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>3510</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>2023</v>
@@ -1101,25 +1089,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>4212</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>2023</v>
@@ -1127,25 +1115,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>4212</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>2023</v>
@@ -1153,25 +1141,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>5265</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>2023</v>
@@ -1179,25 +1167,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>5967</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>2023</v>
@@ -1205,25 +1193,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>7020</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>2023</v>
@@ -1231,25 +1219,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>7722</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>2023</v>
@@ -1257,33 +1245,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>8775</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>2023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
